--- a/test_source_ge_output.xlsx
+++ b/test_source_ge_output.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:CQ89"/>
+  <dimension ref="B3:FI121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,10 +568,296 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="BH81" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="BH82" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="I83" t="n">
+        <v>99999</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="BH84" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="BH85" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
     <row r="89">
       <c r="I89" t="inlineStr">
         <is>
           <t>HONGRITA P</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="I92" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>ZHONGXINGL</t>
+        </is>
+      </c>
+      <c r="BF100" t="inlineStr">
+        <is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="CW100" t="inlineStr">
+        <is>
+          <t>HONGRITA P</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CW101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CW102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CW103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="BF104" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="CW104" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="BF105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="CW105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="BF110" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="CW110" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="BF111" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="CW111" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="O112" t="n">
+        <v>99999</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>99999</v>
+      </c>
+      <c r="CW112" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="O113" t="n">
+        <v>99999</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>99999</v>
+      </c>
+      <c r="CW113" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="O114" t="n">
+        <v>99999</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>99999</v>
+      </c>
+      <c r="CW114" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="O115" t="n">
+        <v>99999</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>99999</v>
+      </c>
+      <c r="CW115" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="BF121" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="CW121" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
